--- a/profile.xlsx
+++ b/profile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DellXPS_7\Documents\研究事務\水理公式集例題集の改訂\例題作成\5-2\提出20221010\プログラム集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D686A38-BC24-4F01-A067-AD4BC7536193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F0954A-E8E9-400E-A689-9DBE56FFDA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="26385" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2505" windowWidth="26385" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -12401,7 +12401,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0FWGnq7nWXPtsQ+uJTdkcZrilRE+mPLqUY2MoY+YH2JZUkcZUZu5vtAhOH6AIdmi7R2+jhFyM1ZIa8Y1E8I2gA==" saltValue="GZC3jLCxchnMxu79ThSpLA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13849,7 +13848,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="X0yz1mjEI0e7WhMG+F8YQ+KgnSjVnFKrkEif1mdVZXx8WjspAmOQGGw49vGJrd/Cpe6/UwJAvkqJNu2ObPFxSw==" saltValue="dQsTObmJj00VB0MOLi9LNA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
